--- a/file/data/POT/Anexo_Acuerdo_012_2013/Cartografia.xlsx
+++ b/file/data/POT/Anexo_Acuerdo_012_2013/Cartografia.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebacorreoescuelaingeduco-my.sharepoint.com/personal/william_aguilar_escuelaing_edu_co/Documents/ECIJG.ClassSourcecode/SIGE/MunicipioZipaquiraCundinamarca/ref/Anexo_Acuerdo_012_2013/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\file\data\POT\Anexo_Acuerdo_012_2013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{69CD1938-3135-4BC7-B7E0-52E4B26EEE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0985D484-6857-4090-BA98-2AB1493606C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3B7F96-96B7-47EB-9DCE-98DAC9F672E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="POT" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">POT!$B$3:$S$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,218 +39,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="129">
   <si>
     <t>Categorías de protección y desarrollo restringido en suelo rural</t>
   </si>
   <si>
-    <t>DR – 01a</t>
-  </si>
-  <si>
     <t>Áreas protegidas</t>
   </si>
   <si>
-    <t>DR – 01b</t>
-  </si>
-  <si>
     <t>Estructura ecológica principal rural</t>
   </si>
   <si>
-    <t>DR - 02</t>
-  </si>
-  <si>
     <t>Hidrografía y delimitación de cuencas</t>
   </si>
   <si>
-    <t>DR - 03</t>
-  </si>
-  <si>
     <t>Geomorfología</t>
   </si>
   <si>
-    <t>DR - 04</t>
-  </si>
-  <si>
     <t>Suelos</t>
   </si>
   <si>
-    <t>DR - 05</t>
-  </si>
-  <si>
     <t>Pendientes</t>
   </si>
   <si>
-    <t>DR - 06</t>
-  </si>
-  <si>
     <t>Zonificación agroclimática</t>
   </si>
   <si>
-    <t>DR - 07</t>
-  </si>
-  <si>
     <t>Uso potencial del suelo rural</t>
   </si>
   <si>
-    <t>DR - 08</t>
-  </si>
-  <si>
     <t>Cobertura y uso actual del suelo rural</t>
   </si>
   <si>
-    <t>DR - 09</t>
-  </si>
-  <si>
     <t>Conflictos de uso del suelo rural</t>
   </si>
   <si>
-    <t>DR - 10</t>
-  </si>
-  <si>
     <t>Zonificación de amenazas naturales y antrópicas en suelo rural</t>
   </si>
   <si>
-    <t>DR - 11</t>
-  </si>
-  <si>
     <t>Sistema vial rural</t>
   </si>
   <si>
-    <t>DR - 12</t>
-  </si>
-  <si>
     <t>Equipamientos colectivos rurales y elementos patrimoniales</t>
   </si>
   <si>
-    <t>DR - 13</t>
-  </si>
-  <si>
     <t>Clasificación general del territorio</t>
   </si>
   <si>
-    <t>DR - 14</t>
-  </si>
-  <si>
     <t>Asentamientos humanos</t>
   </si>
   <si>
-    <t>DR - 15</t>
-  </si>
-  <si>
     <t>Límites y división política rural</t>
   </si>
   <si>
-    <t>DR - 16</t>
-  </si>
-  <si>
     <t>Predios de propiedad del Municipio</t>
   </si>
   <si>
-    <t>DR - 17</t>
-  </si>
-  <si>
     <t>Uso actual del suelo en Centros Poblados Rurales (CPR)</t>
   </si>
   <si>
-    <t>DR - 18</t>
-  </si>
-  <si>
     <t>Altura de edificaciones en Centros Poblados Rurales (CPR)</t>
   </si>
   <si>
-    <t>DR - 19</t>
-  </si>
-  <si>
     <t>Estructura ecológica principal urbana</t>
   </si>
   <si>
-    <t>DU - 01</t>
-  </si>
-  <si>
     <t>Zonificación de amenazas naturales y atrópicas en suelo urbano</t>
   </si>
   <si>
-    <t>DU - 02</t>
-  </si>
-  <si>
     <t>Sistema urbano de acueducto</t>
   </si>
   <si>
-    <t>DU – 03</t>
-  </si>
-  <si>
     <t>Sistema urbano de alcantarillado</t>
   </si>
   <si>
-    <t>DU – 04</t>
-  </si>
-  <si>
     <t>Sistema vial urbano existente</t>
   </si>
   <si>
-    <t>DU – 05</t>
-  </si>
-  <si>
-    <t>Sistema vial urbano proyectado en P.O.T. vigente y plan de movilidad</t>
-  </si>
-  <si>
-    <t>DU – 06</t>
-  </si>
-  <si>
     <t>Sistemas urbanos de espacio público y equipamientos colectivos</t>
   </si>
   <si>
-    <t>DU – 07</t>
-  </si>
-  <si>
     <t>Uso actual de suelo urbano</t>
   </si>
   <si>
-    <t>DU – 08</t>
-  </si>
-  <si>
     <t>Conflictos por uso del suelo urbano</t>
   </si>
   <si>
-    <t>DU – 09</t>
-  </si>
-  <si>
     <t>Ocupación en áreas de ronda</t>
   </si>
   <si>
-    <t>DU – 10</t>
-  </si>
-  <si>
     <t>Altura de edificaciones</t>
   </si>
   <si>
-    <t>DU – 11</t>
-  </si>
-  <si>
     <t>Unidades morfológicas homogéneas</t>
   </si>
   <si>
-    <t>DU – 12</t>
-  </si>
-  <si>
     <t>Perímetro y división política urbana</t>
   </si>
   <si>
-    <t>DU – 13</t>
-  </si>
-  <si>
-    <t>Conflictos P.O.T. vigente y expectativas ajuste</t>
-  </si>
-  <si>
-    <t>DU – 14</t>
-  </si>
-  <si>
     <t>Usos por Planes Parciales y Especiales</t>
   </si>
   <si>
-    <t>DU – 15</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -272,102 +164,48 @@
     <t>Suelo / Componente</t>
   </si>
   <si>
-    <t>CG – 01</t>
-  </si>
-  <si>
-    <t>CG – 02</t>
-  </si>
-  <si>
-    <t>CG – 03</t>
-  </si>
-  <si>
-    <t>CG – 04</t>
-  </si>
-  <si>
     <t>Modelo de ocupación del territorio</t>
   </si>
   <si>
-    <t>CG – 05</t>
-  </si>
-  <si>
     <t>División política rural</t>
   </si>
   <si>
-    <t>CG – 06</t>
-  </si>
-  <si>
     <t>División política urbana</t>
   </si>
   <si>
-    <t>CG – 08</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
     <t>Formulación</t>
   </si>
   <si>
-    <t>CU – 01</t>
-  </si>
-  <si>
     <t>Tratamientos en suelo urbano y de expansión urbana</t>
   </si>
   <si>
-    <t>CU – 02</t>
-  </si>
-  <si>
     <t>Áreas de actividad en suelo urbano y de expansión urbana</t>
   </si>
   <si>
-    <t>CU – 03</t>
-  </si>
-  <si>
     <t>Plan vial en suelo urbano y de expansión urbana</t>
   </si>
   <si>
-    <t>CU – 04</t>
-  </si>
-  <si>
     <t>Plan de espacio público en suelo urbano y de expansión urbana</t>
   </si>
   <si>
-    <t>CU – 05</t>
-  </si>
-  <si>
     <t>Plan de equipamientos comunitarios</t>
   </si>
   <si>
-    <t>CU – 06</t>
-  </si>
-  <si>
     <t>Plan parcial La Fraguita</t>
   </si>
   <si>
-    <t>CU – 07</t>
-  </si>
-  <si>
     <t>Localización de áreas para VIS y VIP</t>
   </si>
   <si>
-    <t>CU – 08</t>
-  </si>
-  <si>
     <t>Áreas morfológicas homogéneas en suelo urbano y de expansión urbana</t>
   </si>
   <si>
     <t>Áreas de actividad en suelo rural</t>
   </si>
   <si>
-    <t>CR – 01</t>
-  </si>
-  <si>
-    <t>Áreas de actividad en centros poblados rurales</t>
-  </si>
-  <si>
-    <t>CR – 02a</t>
-  </si>
-  <si>
     <t>Áreas de actividad en Centros Poblados Rurales</t>
   </si>
   <si>
@@ -377,15 +215,9 @@
     <t>Plan vial rural</t>
   </si>
   <si>
-    <t>CR – 03</t>
-  </si>
-  <si>
     <t>Cartografía Acuerdo 012 de 2003 - Plan de Ordenamiento Territorial Municipio de Zipaquirá</t>
   </si>
   <si>
-    <t>CG – 07</t>
-  </si>
-  <si>
     <t>Fuente base cartográfica</t>
   </si>
   <si>
@@ -423,6 +255,177 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Sistema vial urbano proyectado en POT vigente y plan de movilidad</t>
+  </si>
+  <si>
+    <t>Conflictos POT vigente y expectativas ajuste</t>
+  </si>
+  <si>
+    <t>DR-02</t>
+  </si>
+  <si>
+    <t>DR-03</t>
+  </si>
+  <si>
+    <t>DR-04</t>
+  </si>
+  <si>
+    <t>DR-05</t>
+  </si>
+  <si>
+    <t>DR-06</t>
+  </si>
+  <si>
+    <t>DR-07</t>
+  </si>
+  <si>
+    <t>DR-08</t>
+  </si>
+  <si>
+    <t>DR-09</t>
+  </si>
+  <si>
+    <t>DR-10</t>
+  </si>
+  <si>
+    <t>DR-11</t>
+  </si>
+  <si>
+    <t>DR-12</t>
+  </si>
+  <si>
+    <t>DR-13</t>
+  </si>
+  <si>
+    <t>DR-14</t>
+  </si>
+  <si>
+    <t>DR-15</t>
+  </si>
+  <si>
+    <t>DR-16</t>
+  </si>
+  <si>
+    <t>DR-17</t>
+  </si>
+  <si>
+    <t>DR-18</t>
+  </si>
+  <si>
+    <t>DR-19</t>
+  </si>
+  <si>
+    <t>DU-01</t>
+  </si>
+  <si>
+    <t>DU-02</t>
+  </si>
+  <si>
+    <t>DR-01a</t>
+  </si>
+  <si>
+    <t>DR-01b</t>
+  </si>
+  <si>
+    <t>DU-03</t>
+  </si>
+  <si>
+    <t>DU-04</t>
+  </si>
+  <si>
+    <t>DU-05</t>
+  </si>
+  <si>
+    <t>DU-06</t>
+  </si>
+  <si>
+    <t>DU-07</t>
+  </si>
+  <si>
+    <t>DU-08</t>
+  </si>
+  <si>
+    <t>DU-09</t>
+  </si>
+  <si>
+    <t>DU-10</t>
+  </si>
+  <si>
+    <t>DU-11</t>
+  </si>
+  <si>
+    <t>DU-12</t>
+  </si>
+  <si>
+    <t>DU-13</t>
+  </si>
+  <si>
+    <t>DU-14</t>
+  </si>
+  <si>
+    <t>DU-15</t>
+  </si>
+  <si>
+    <t>CG-01</t>
+  </si>
+  <si>
+    <t>CG-02</t>
+  </si>
+  <si>
+    <t>CG-03</t>
+  </si>
+  <si>
+    <t>CG-04</t>
+  </si>
+  <si>
+    <t>CG-05</t>
+  </si>
+  <si>
+    <t>CG-06</t>
+  </si>
+  <si>
+    <t>CG-07</t>
+  </si>
+  <si>
+    <t>CG-08</t>
+  </si>
+  <si>
+    <t>CU-01</t>
+  </si>
+  <si>
+    <t>CU-02</t>
+  </si>
+  <si>
+    <t>CU-03</t>
+  </si>
+  <si>
+    <t>CU-04</t>
+  </si>
+  <si>
+    <t>CU-05</t>
+  </si>
+  <si>
+    <t>CU-06</t>
+  </si>
+  <si>
+    <t>CU-07</t>
+  </si>
+  <si>
+    <t>CU-08</t>
+  </si>
+  <si>
+    <t>CR-01</t>
+  </si>
+  <si>
+    <t>CR-02a</t>
+  </si>
+  <si>
+    <t>CR-03</t>
+  </si>
+  <si>
+    <t>Mapa</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
@@ -647,46 +649,46 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,112 +1024,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
-  <dimension ref="B2:R59"/>
+  <dimension ref="B2:S59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="12" width="14.7109375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="14.5703125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="19" style="2" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.15234375" style="1"/>
+    <col min="6" max="7" width="44.921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.15234375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3828125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.15234375" style="1"/>
+    <col min="12" max="13" width="14.69140625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="14.53515625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="19" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.3828125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="10" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" s="8" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+    </row>
+    <row r="4" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3" t="str">
+        <f>_xlfn.CONCAT(E4," ",F4,".")</f>
+        <v>DR-01a Categorías de protección y desarrollo restringido en suelo rural.</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1136,29 +1142,33 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ref="G5:G59" si="0">_xlfn.CONCAT(E5," ",F5,".")</f>
+        <v>DR-01b Áreas protegidas.</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1167,29 +1177,33 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-02 Estructura ecológica principal rural.</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1198,29 +1212,33 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-03 Hidrografía y delimitación de cuencas.</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1229,29 +1247,33 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="9">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-04 Geomorfología.</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1260,29 +1282,33 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-05 Suelos.</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1291,29 +1317,33 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-06 Pendientes.</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1322,29 +1352,33 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="9">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-07 Zonificación agroclimática.</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1353,29 +1387,33 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="9">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-08 Uso potencial del suelo rural.</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1384,29 +1422,33 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-09 Cobertura y uso actual del suelo rural.</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1415,29 +1457,33 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="9">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-10 Conflictos de uso del suelo rural.</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1446,26 +1492,30 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="9">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-11 Zonificación de amenazas naturales y antrópicas en suelo rural.</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1475,26 +1525,30 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="9">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-12 Sistema vial rural.</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1504,26 +1558,30 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B17" s="9">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-13 Equipamientos colectivos rurales y elementos patrimoniales.</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1533,26 +1591,30 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" s="9">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-14 Clasificación general del territorio.</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1562,26 +1624,30 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="9">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-15 Asentamientos humanos.</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1591,26 +1657,30 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="9">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-16 Límites y división política rural.</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1620,26 +1690,30 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="9">
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-17 Predios de propiedad del Municipio.</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1649,26 +1723,30 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B22" s="9">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-18 Uso actual del suelo en Centros Poblados Rurales (CPR).</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1678,26 +1756,30 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B23" s="9">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-19 Altura de edificaciones en Centros Poblados Rurales (CPR).</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1707,29 +1789,33 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B24" s="9">
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-01 Estructura ecológica principal urbana.</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1738,29 +1824,33 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+      <c r="Q24" s="3"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B25" s="9">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-02 Zonificación de amenazas naturales y atrópicas en suelo urbano.</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1769,29 +1859,33 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" s="9">
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-03 Sistema urbano de acueducto.</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1800,29 +1894,33 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B27" s="9">
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-04 Sistema urbano de alcantarillado.</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1831,29 +1929,33 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B28" s="9">
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-05 Sistema vial urbano existente.</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1862,29 +1964,33 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B29" s="9">
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad.</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1893,29 +1999,33 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B30" s="9">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-07 Sistemas urbanos de espacio público y equipamientos colectivos.</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1924,26 +2034,30 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B31" s="9">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-08 Uso actual de suelo urbano.</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1953,26 +2067,30 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B32" s="9">
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-09 Conflictos por uso del suelo urbano.</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1982,26 +2100,30 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B33" s="9">
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-10 Ocupación en áreas de ronda.</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2011,26 +2133,30 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B34" s="9">
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-11 Altura de edificaciones.</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -2040,26 +2166,30 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B35" s="9">
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-12 Unidades morfológicas homogéneas.</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -2069,26 +2199,30 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B36" s="9">
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-13 Perímetro y división política urbana.</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -2098,26 +2232,30 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B37" s="9">
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-14 Conflictos POT vigente y expectativas ajuste.</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2127,26 +2265,30 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B38" s="9">
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU-15 Usos por Planes Parciales y Especiales.</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2156,29 +2298,33 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B39" s="9">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CG-01 Clasificación general del territorio.</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2187,29 +2333,33 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="11"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B40" s="9">
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CG-02 Asentamientos humanos.</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2218,29 +2368,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="11"/>
+    </row>
+    <row r="41" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B41" s="9">
         <v>3</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="3"/>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CG-03 Categorías de protección y desarrollo restringido en suelo rural.</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2249,29 +2403,33 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
+      <c r="Q41" s="3"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B42" s="9">
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CG-04 Estructura ecológica principal urbana.</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2280,29 +2438,33 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="4">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B43" s="9">
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CG-05 Modelo de ocupación del territorio.</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -2311,29 +2473,33 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
+      <c r="Q43" s="3"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B44" s="9">
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CG-06 División política rural.</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2342,29 +2508,33 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
+      <c r="Q44" s="3"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B45" s="9">
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CG-07 División política urbana.</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2373,29 +2543,33 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
+      <c r="Q45" s="3"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="11"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B46" s="9">
         <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CG-08 Estructura ecológica principal rural.</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2404,29 +2578,33 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="4">
+      <c r="Q46" s="3"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B47" s="9">
         <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CU-01 Áreas morfológicas homogéneas en suelo urbano y de expansión urbana.</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -2435,29 +2613,33 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
+      <c r="Q47" s="3"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B48" s="9">
         <v>10</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CU-02 Tratamientos en suelo urbano y de expansión urbana.</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -2466,29 +2648,33 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="4">
+      <c r="Q48" s="3"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B49" s="9">
         <v>11</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H49" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CU-03 Áreas de actividad en suelo urbano y de expansión urbana.</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -2497,29 +2683,33 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
+      <c r="Q49" s="3"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B50" s="9">
         <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H50" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CU-04 Plan vial en suelo urbano y de expansión urbana.</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -2528,29 +2718,33 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
+      <c r="Q50" s="3"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="11"/>
+    </row>
+    <row r="51" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B51" s="9">
         <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CU-05 Plan de espacio público en suelo urbano y de expansión urbana.</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -2559,29 +2753,33 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
+      <c r="Q51" s="3"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="11"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B52" s="9">
         <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H52" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CU-06 Plan de equipamientos comunitarios.</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -2590,29 +2788,33 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B53" s="4">
+      <c r="Q52" s="3"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B53" s="9">
         <v>15</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CU-07 Plan parcial La Fraguita.</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -2621,29 +2823,33 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
+      <c r="Q53" s="3"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B54" s="9">
         <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CU-08 Localización de áreas para VIS y VIP.</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -2652,29 +2858,33 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B55" s="4">
+      <c r="Q54" s="3"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B55" s="9">
         <v>17</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CR-01 Áreas de actividad en suelo rural.</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -2683,29 +2893,33 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="4">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="11"/>
+    </row>
+    <row r="56" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B56" s="9">
         <v>18</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CR-02a Áreas de actividad en Centros Poblados Rurales.</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -2714,29 +2928,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57" s="4">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="11"/>
+    </row>
+    <row r="57" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B57" s="9">
         <v>19</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H57" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CR-02b Áreas de actividad en Centros Poblados Rurales.</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -2745,29 +2963,33 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
+      <c r="Q57" s="3"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="11"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B58" s="9">
         <v>20</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H58" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CR-03 Plan vial rural.</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -2776,29 +2998,35 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="8"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="11"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B59" s="12"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> .</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:S59" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file/data/POT/Anexo_Acuerdo_012_2013/Cartografia.xlsx
+++ b/file/data/POT/Anexo_Acuerdo_012_2013/Cartografia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\file\data\POT\Anexo_Acuerdo_012_2013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3B7F96-96B7-47EB-9DCE-98DAC9F672E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD3212-EA98-49B5-BC3E-3FA177AF9EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
@@ -1024,11 +1024,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:S59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -1111,7 +1112,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -1146,7 +1147,7 @@
       <c r="R4" s="10"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -1181,7 +1182,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -1216,7 +1217,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -1251,7 +1252,7 @@
       <c r="R7" s="10"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -1286,7 +1287,7 @@
       <c r="R8" s="10"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -1321,7 +1322,7 @@
       <c r="R9" s="10"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -1356,7 +1357,7 @@
       <c r="R10" s="10"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -1391,7 +1392,7 @@
       <c r="R11" s="10"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -1426,7 +1427,7 @@
       <c r="R12" s="10"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -1461,7 +1462,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -1496,7 +1497,7 @@
       <c r="R14" s="10"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -1529,7 +1530,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -1562,7 +1563,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -1595,7 +1596,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="11"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -1628,7 +1629,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -1661,7 +1662,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="11"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -1694,7 +1695,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="11"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -1727,7 +1728,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="11"/>
     </row>
-    <row r="22" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -1760,7 +1761,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -1793,7 +1794,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B24" s="9">
         <v>23</v>
       </c>
@@ -1828,7 +1829,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="11"/>
     </row>
-    <row r="25" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9">
         <v>24</v>
       </c>
@@ -1863,7 +1864,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="11"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B26" s="9">
         <v>25</v>
       </c>
@@ -1898,7 +1899,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="11"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B27" s="9">
         <v>26</v>
       </c>
@@ -1933,7 +1934,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="11"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B28" s="9">
         <v>27</v>
       </c>
@@ -1968,7 +1969,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="11"/>
     </row>
-    <row r="29" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B29" s="9">
         <v>28</v>
       </c>
@@ -2003,7 +2004,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="11"/>
     </row>
-    <row r="30" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B30" s="9">
         <v>29</v>
       </c>
@@ -2038,7 +2039,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="11"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9">
         <v>30</v>
       </c>
@@ -2071,7 +2072,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B32" s="9">
         <v>31</v>
       </c>
@@ -2104,7 +2105,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B33" s="9">
         <v>32</v>
       </c>
@@ -2137,7 +2138,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9">
         <v>33</v>
       </c>
@@ -2170,7 +2171,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="11"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B35" s="9">
         <v>34</v>
       </c>
@@ -2203,7 +2204,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="11"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B36" s="9">
         <v>35</v>
       </c>
@@ -2236,7 +2237,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B37" s="9">
         <v>36</v>
       </c>
@@ -2269,7 +2270,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="11"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="9">
         <v>37</v>
       </c>
@@ -2582,7 +2583,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B47" s="9">
         <v>9</v>
       </c>
@@ -2617,7 +2618,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="48" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B48" s="9">
         <v>10</v>
       </c>
@@ -2652,7 +2653,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="11"/>
     </row>
-    <row r="49" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B49" s="9">
         <v>11</v>
       </c>
@@ -2687,7 +2688,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="11"/>
     </row>
-    <row r="50" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B50" s="9">
         <v>12</v>
       </c>
@@ -2722,7 +2723,7 @@
       <c r="R50" s="10"/>
       <c r="S50" s="11"/>
     </row>
-    <row r="51" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B51" s="9">
         <v>13</v>
       </c>
@@ -2757,7 +2758,7 @@
       <c r="R51" s="10"/>
       <c r="S51" s="11"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B52" s="9">
         <v>14</v>
       </c>
@@ -2792,7 +2793,7 @@
       <c r="R52" s="10"/>
       <c r="S52" s="11"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B53" s="9">
         <v>15</v>
       </c>
@@ -2827,7 +2828,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="11"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B54" s="9">
         <v>16</v>
       </c>
@@ -2862,7 +2863,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="11"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B55" s="9">
         <v>17</v>
       </c>
@@ -2897,7 +2898,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="11"/>
     </row>
-    <row r="56" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B56" s="9">
         <v>18</v>
       </c>
@@ -2932,7 +2933,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="11"/>
     </row>
-    <row r="57" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B57" s="9">
         <v>19</v>
       </c>
@@ -2967,7 +2968,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="11"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B58" s="9">
         <v>20</v>
       </c>
@@ -3002,7 +3003,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="11"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B59" s="12"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3026,7 +3027,13 @@
       <c r="S59" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:S59" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}"/>
+  <autoFilter ref="B3:S59" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="General"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file/data/POT/Anexo_Acuerdo_012_2013/Cartografia.xlsx
+++ b/file/data/POT/Anexo_Acuerdo_012_2013/Cartografia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\file\data\POT\Anexo_Acuerdo_012_2013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD3212-EA98-49B5-BC3E-3FA177AF9EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C836B407-8BD9-4B3D-9EA0-505C00BEDE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Estructura ecológica principal urbana</t>
   </si>
   <si>
-    <t>Zonificación de amenazas naturales y atrópicas en suelo urbano</t>
-  </si>
-  <si>
     <t>Sistema urbano de acueducto</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>Mapa</t>
+  </si>
+  <si>
+    <t>Zonificación de amenazas naturales y antrópicas en suelo urbano</t>
   </si>
 </sst>
 </file>
@@ -1024,106 +1024,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:S59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.15234375" style="1"/>
-    <col min="6" max="7" width="44.921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.15234375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3828125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.15234375" style="1"/>
-    <col min="12" max="13" width="14.69140625" style="1" customWidth="1"/>
-    <col min="14" max="16" width="14.53515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.9296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="1"/>
+    <col min="6" max="7" width="44.9296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" style="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="14.53125" style="1" customWidth="1"/>
     <col min="17" max="18" width="19" style="1" customWidth="1"/>
-    <col min="19" max="19" width="28.3828125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.15234375" style="1"/>
+    <col min="19" max="19" width="28.3984375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" s="8" customFormat="1" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" s="8" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="S3" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -1133,7 +1132,7 @@
         <v>DR-01a Categorías de protección y desarrollo restringido en suelo rural.</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1147,18 +1146,18 @@
       <c r="R4" s="10"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>1</v>
@@ -1168,7 +1167,7 @@
         <v>DR-01b Áreas protegidas.</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1182,18 +1181,18 @@
       <c r="R5" s="10"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -1203,7 +1202,7 @@
         <v>DR-02 Estructura ecológica principal rural.</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1217,18 +1216,18 @@
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" s="9">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>3</v>
@@ -1238,7 +1237,7 @@
         <v>DR-03 Hidrografía y delimitación de cuencas.</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1252,18 +1251,18 @@
       <c r="R7" s="10"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B8" s="9">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -1273,7 +1272,7 @@
         <v>DR-04 Geomorfología.</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1287,18 +1286,18 @@
       <c r="R8" s="10"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" s="9">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
@@ -1308,7 +1307,7 @@
         <v>DR-05 Suelos.</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1322,18 +1321,18 @@
       <c r="R9" s="10"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" s="9">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>6</v>
@@ -1343,7 +1342,7 @@
         <v>DR-06 Pendientes.</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1357,18 +1356,18 @@
       <c r="R10" s="10"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B11" s="9">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
@@ -1378,7 +1377,7 @@
         <v>DR-07 Zonificación agroclimática.</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1392,18 +1391,18 @@
       <c r="R11" s="10"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" s="9">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -1413,7 +1412,7 @@
         <v>DR-08 Uso potencial del suelo rural.</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1427,18 +1426,18 @@
       <c r="R12" s="10"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B13" s="9">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>9</v>
@@ -1448,7 +1447,7 @@
         <v>DR-09 Cobertura y uso actual del suelo rural.</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1462,18 +1461,18 @@
       <c r="R13" s="10"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B14" s="9">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1483,7 +1482,7 @@
         <v>DR-10 Conflictos de uso del suelo rural.</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1497,18 +1496,18 @@
       <c r="R14" s="10"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B15" s="9">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
@@ -1530,18 +1529,18 @@
       <c r="R15" s="10"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B16" s="9">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
@@ -1563,18 +1562,18 @@
       <c r="R16" s="10"/>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B17" s="9">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
@@ -1596,18 +1595,18 @@
       <c r="R17" s="10"/>
       <c r="S17" s="11"/>
     </row>
-    <row r="18" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B18" s="9">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>14</v>
@@ -1629,18 +1628,18 @@
       <c r="R18" s="10"/>
       <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B19" s="9">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>15</v>
@@ -1662,18 +1661,18 @@
       <c r="R19" s="10"/>
       <c r="S19" s="11"/>
     </row>
-    <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B20" s="9">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
@@ -1695,18 +1694,18 @@
       <c r="R20" s="10"/>
       <c r="S20" s="11"/>
     </row>
-    <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B21" s="9">
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>17</v>
@@ -1728,18 +1727,18 @@
       <c r="R21" s="10"/>
       <c r="S21" s="11"/>
     </row>
-    <row r="22" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B22" s="9">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>18</v>
@@ -1761,18 +1760,18 @@
       <c r="R22" s="10"/>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B23" s="9">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>19</v>
@@ -1794,18 +1793,18 @@
       <c r="R23" s="10"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B24" s="9">
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>20</v>
@@ -1815,7 +1814,7 @@
         <v>DU-01 Estructura ecológica principal urbana.</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1829,28 +1828,28 @@
       <c r="R24" s="10"/>
       <c r="S24" s="11"/>
     </row>
-    <row r="25" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B25" s="9">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DU-02 Zonificación de amenazas naturales y atrópicas en suelo urbano.</v>
+        <v>DU-02 Zonificación de amenazas naturales y antrópicas en suelo urbano.</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1864,28 +1863,28 @@
       <c r="R25" s="10"/>
       <c r="S25" s="11"/>
     </row>
-    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B26" s="9">
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DU-03 Sistema urbano de acueducto.</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1899,28 +1898,28 @@
       <c r="R26" s="10"/>
       <c r="S26" s="11"/>
     </row>
-    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B27" s="9">
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DU-04 Sistema urbano de alcantarillado.</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1934,28 +1933,28 @@
       <c r="R27" s="10"/>
       <c r="S27" s="11"/>
     </row>
-    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B28" s="9">
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DU-05 Sistema vial urbano existente.</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1969,28 +1968,28 @@
       <c r="R28" s="10"/>
       <c r="S28" s="11"/>
     </row>
-    <row r="29" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B29" s="9">
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad.</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -2004,28 +2003,28 @@
       <c r="R29" s="10"/>
       <c r="S29" s="11"/>
     </row>
-    <row r="30" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B30" s="9">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DU-07 Sistemas urbanos de espacio público y equipamientos colectivos.</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -2039,21 +2038,21 @@
       <c r="R30" s="10"/>
       <c r="S30" s="11"/>
     </row>
-    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B31" s="9">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2072,21 +2071,21 @@
       <c r="R31" s="10"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B32" s="9">
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2105,21 +2104,21 @@
       <c r="R32" s="10"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B33" s="9">
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2138,21 +2137,21 @@
       <c r="R33" s="10"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B34" s="9">
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2171,21 +2170,21 @@
       <c r="R34" s="10"/>
       <c r="S34" s="11"/>
     </row>
-    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B35" s="9">
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2204,21 +2203,21 @@
       <c r="R35" s="10"/>
       <c r="S35" s="11"/>
     </row>
-    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B36" s="9">
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2237,21 +2236,21 @@
       <c r="R36" s="10"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B37" s="9">
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2270,21 +2269,21 @@
       <c r="R37" s="10"/>
       <c r="S37" s="11"/>
     </row>
-    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B38" s="9">
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2303,18 +2302,18 @@
       <c r="R38" s="10"/>
       <c r="S38" s="11"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B39" s="9">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>14</v>
@@ -2324,7 +2323,7 @@
         <v>CG-01 Clasificación general del territorio.</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -2338,18 +2337,18 @@
       <c r="R39" s="10"/>
       <c r="S39" s="11"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B40" s="9">
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
@@ -2359,7 +2358,7 @@
         <v>CG-02 Asentamientos humanos.</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -2373,18 +2372,18 @@
       <c r="R40" s="10"/>
       <c r="S40" s="11"/>
     </row>
-    <row r="41" spans="2:19" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B41" s="9">
         <v>3</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>0</v>
@@ -2394,7 +2393,7 @@
         <v>CG-03 Categorías de protección y desarrollo restringido en suelo rural.</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -2408,18 +2407,18 @@
       <c r="R41" s="10"/>
       <c r="S41" s="11"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B42" s="9">
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>20</v>
@@ -2429,7 +2428,7 @@
         <v>CG-04 Estructura ecológica principal urbana.</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -2443,28 +2442,28 @@
       <c r="R42" s="10"/>
       <c r="S42" s="11"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B43" s="9">
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CG-05 Modelo de ocupación del territorio.</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2478,28 +2477,28 @@
       <c r="R43" s="10"/>
       <c r="S43" s="11"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B44" s="9">
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CG-06 División política rural.</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -2513,28 +2512,28 @@
       <c r="R44" s="10"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B45" s="9">
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CG-07 División política urbana.</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2548,18 +2547,18 @@
       <c r="R45" s="10"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B46" s="9">
         <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>2</v>
@@ -2569,7 +2568,7 @@
         <v>CG-08 Estructura ecológica principal rural.</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2583,28 +2582,28 @@
       <c r="R46" s="10"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B47" s="9">
         <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CU-01 Áreas morfológicas homogéneas en suelo urbano y de expansión urbana.</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2618,28 +2617,28 @@
       <c r="R47" s="10"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="48" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B48" s="9">
         <v>10</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CU-02 Tratamientos en suelo urbano y de expansión urbana.</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2653,28 +2652,28 @@
       <c r="R48" s="10"/>
       <c r="S48" s="11"/>
     </row>
-    <row r="49" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B49" s="9">
         <v>11</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CU-03 Áreas de actividad en suelo urbano y de expansión urbana.</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -2688,28 +2687,28 @@
       <c r="R49" s="10"/>
       <c r="S49" s="11"/>
     </row>
-    <row r="50" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B50" s="9">
         <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CU-04 Plan vial en suelo urbano y de expansión urbana.</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2723,28 +2722,28 @@
       <c r="R50" s="10"/>
       <c r="S50" s="11"/>
     </row>
-    <row r="51" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B51" s="9">
         <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CU-05 Plan de espacio público en suelo urbano y de expansión urbana.</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2758,28 +2757,28 @@
       <c r="R51" s="10"/>
       <c r="S51" s="11"/>
     </row>
-    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B52" s="9">
         <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CU-06 Plan de equipamientos comunitarios.</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2793,28 +2792,28 @@
       <c r="R52" s="10"/>
       <c r="S52" s="11"/>
     </row>
-    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B53" s="9">
         <v>15</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CU-07 Plan parcial La Fraguita.</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2828,28 +2827,28 @@
       <c r="R53" s="10"/>
       <c r="S53" s="11"/>
     </row>
-    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B54" s="9">
         <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CU-08 Localización de áreas para VIS y VIP.</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -2863,28 +2862,28 @@
       <c r="R54" s="10"/>
       <c r="S54" s="11"/>
     </row>
-    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B55" s="9">
         <v>17</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CR-01 Áreas de actividad en suelo rural.</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -2898,28 +2897,28 @@
       <c r="R55" s="10"/>
       <c r="S55" s="11"/>
     </row>
-    <row r="56" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B56" s="9">
         <v>18</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CR-02a Áreas de actividad en Centros Poblados Rurales.</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -2933,28 +2932,28 @@
       <c r="R56" s="10"/>
       <c r="S56" s="11"/>
     </row>
-    <row r="57" spans="2:19" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:19" ht="33" x14ac:dyDescent="0.45">
       <c r="B57" s="9">
         <v>19</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CR-02b Áreas de actividad en Centros Poblados Rurales.</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -2968,28 +2967,28 @@
       <c r="R57" s="10"/>
       <c r="S57" s="11"/>
     </row>
-    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B58" s="9">
         <v>20</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CR-03 Plan vial rural.</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -3003,7 +3002,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="11"/>
     </row>
-    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B59" s="12"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3027,13 +3026,7 @@
       <c r="S59" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:S59" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="General"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:S59" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>